--- a/Code/Results/Cases/Case_9_56/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_9_56/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9995024753502242</v>
+        <v>0.99976722084916</v>
       </c>
       <c r="D2">
-        <v>1.021989046908001</v>
+        <v>1.02175857025268</v>
       </c>
       <c r="E2">
-        <v>1.005804567948182</v>
+        <v>1.0061059503912</v>
       </c>
       <c r="F2">
-        <v>1.025732540638359</v>
+        <v>1.025787680968558</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.048673100527526</v>
+        <v>1.048560496817085</v>
       </c>
       <c r="J2">
-        <v>1.021698077482931</v>
+        <v>1.021954896530076</v>
       </c>
       <c r="K2">
-        <v>1.033150308927398</v>
+        <v>1.032922873042235</v>
       </c>
       <c r="L2">
-        <v>1.017183623936994</v>
+        <v>1.01748087004345</v>
       </c>
       <c r="M2">
-        <v>1.036844652992435</v>
+        <v>1.036899072724229</v>
       </c>
       <c r="N2">
-        <v>1.010606928762603</v>
+        <v>1.012717156274694</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.037732456472384</v>
+        <v>1.03777552620627</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.034510363296201</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.034358365805055</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.020741975550104</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.004273874702299</v>
+        <v>1.004199079822038</v>
       </c>
       <c r="D3">
-        <v>1.025268355279773</v>
+        <v>1.024673631661036</v>
       </c>
       <c r="E3">
-        <v>1.009654465686251</v>
+        <v>1.009650616300124</v>
       </c>
       <c r="F3">
-        <v>1.028910457169073</v>
+        <v>1.028814990007335</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.049904602088511</v>
+        <v>1.049609008130144</v>
       </c>
       <c r="J3">
-        <v>1.024648703794957</v>
+        <v>1.024575924571878</v>
       </c>
       <c r="K3">
-        <v>1.035587817364182</v>
+        <v>1.035000249928468</v>
       </c>
       <c r="L3">
-        <v>1.020165288374834</v>
+        <v>1.020161487075355</v>
       </c>
       <c r="M3">
-        <v>1.039186318362268</v>
+        <v>1.039091989187005</v>
       </c>
       <c r="N3">
-        <v>1.011654220026945</v>
+        <v>1.01344484286173</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.039585732358975</v>
+        <v>1.03951107704261</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.036231236941668</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.035824308962613</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.021203002147431</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.007295938412853</v>
+        <v>1.007009211633176</v>
       </c>
       <c r="D4">
-        <v>1.027347389301775</v>
+        <v>1.026523856656717</v>
       </c>
       <c r="E4">
-        <v>1.012098778843958</v>
+        <v>1.011904254362691</v>
       </c>
       <c r="F4">
-        <v>1.030931405080562</v>
+        <v>1.030741842205151</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.050671032772042</v>
+        <v>1.050260294589297</v>
       </c>
       <c r="J4">
-        <v>1.026514836880523</v>
+        <v>1.026235304727398</v>
       </c>
       <c r="K4">
-        <v>1.037126589756188</v>
+        <v>1.03631236391912</v>
       </c>
       <c r="L4">
-        <v>1.022053342810092</v>
+        <v>1.021861097654879</v>
       </c>
       <c r="M4">
-        <v>1.040670315480486</v>
+        <v>1.040482874954267</v>
       </c>
       <c r="N4">
-        <v>1.012316191285317</v>
+        <v>1.013905554902927</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.040760217112442</v>
+        <v>1.040611870541738</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.037320192185761</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.036753073939571</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.021491718270498</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.008556768357958</v>
+        <v>1.008181826855357</v>
       </c>
       <c r="D5">
-        <v>1.028217181817407</v>
+        <v>1.027298409895235</v>
       </c>
       <c r="E5">
-        <v>1.013120946737433</v>
+        <v>1.012846887975782</v>
       </c>
       <c r="F5">
-        <v>1.031775093401777</v>
+        <v>1.031546382314111</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.05098894752898</v>
+        <v>1.050530234046696</v>
       </c>
       <c r="J5">
-        <v>1.027294655675159</v>
+        <v>1.026928836225024</v>
       </c>
       <c r="K5">
-        <v>1.037770201506622</v>
+        <v>1.036861534033494</v>
       </c>
       <c r="L5">
-        <v>1.022842855984731</v>
+        <v>1.022571920645553</v>
       </c>
       <c r="M5">
-        <v>1.041289192357576</v>
+        <v>1.041062973277014</v>
       </c>
       <c r="N5">
-        <v>1.012594205666174</v>
+        <v>1.014099042733911</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.04125001632327</v>
+        <v>1.041070979252414</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.037782476302598</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.037149289570242</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.021612814234079</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.008774197714297</v>
+        <v>1.008383474317306</v>
       </c>
       <c r="D6">
-        <v>1.028369598870047</v>
+        <v>1.027434172375656</v>
       </c>
       <c r="E6">
-        <v>1.013298524092377</v>
+        <v>1.013010064326054</v>
       </c>
       <c r="F6">
-        <v>1.031919052611906</v>
+        <v>1.031683385296636</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.051045365430788</v>
+        <v>1.050578258798196</v>
       </c>
       <c r="J6">
-        <v>1.027431452918664</v>
+        <v>1.027050185730092</v>
       </c>
       <c r="K6">
-        <v>1.037884623723938</v>
+        <v>1.036959437284244</v>
       </c>
       <c r="L6">
-        <v>1.022981367173367</v>
+        <v>1.022696179472265</v>
       </c>
       <c r="M6">
-        <v>1.041395428992937</v>
+        <v>1.041162317646027</v>
       </c>
       <c r="N6">
-        <v>1.012644781936659</v>
+        <v>1.014134034291426</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.04133409540494</v>
+        <v>1.041149603593145</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.037872152846012</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.037228155398468</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.02163541006252</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.007330673103865</v>
+        <v>1.007051261435282</v>
       </c>
       <c r="D7">
-        <v>1.027377734497774</v>
+        <v>1.026558938890568</v>
       </c>
       <c r="E7">
-        <v>1.012130280524009</v>
+        <v>1.011942473558952</v>
       </c>
       <c r="F7">
-        <v>1.030950188618155</v>
+        <v>1.030763800417199</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.050684586265405</v>
+        <v>1.050276331598536</v>
       </c>
       <c r="J7">
-        <v>1.02654267760106</v>
+        <v>1.026270273723529</v>
       </c>
       <c r="K7">
-        <v>1.037153697937615</v>
+        <v>1.036344151790641</v>
       </c>
       <c r="L7">
-        <v>1.022081522415099</v>
+        <v>1.021895915139233</v>
       </c>
       <c r="M7">
-        <v>1.040686007730218</v>
+        <v>1.040501705537596</v>
       </c>
       <c r="N7">
-        <v>1.012331075810234</v>
+        <v>1.013945574024413</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.040772636471382</v>
+        <v>1.040626773683423</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.037359537393774</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.036797728602839</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.021502822525993</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.001151508687881</v>
+        <v>1.001331252617478</v>
       </c>
       <c r="D8">
-        <v>1.023129696936992</v>
+        <v>1.022796925028635</v>
       </c>
       <c r="E8">
-        <v>1.007138334703602</v>
+        <v>1.007364806900573</v>
       </c>
       <c r="F8">
-        <v>1.02682344480886</v>
+        <v>1.026840485635855</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.049107241905525</v>
+        <v>1.048943611125796</v>
       </c>
       <c r="J8">
-        <v>1.022726360776973</v>
+        <v>1.022900908419827</v>
       </c>
       <c r="K8">
-        <v>1.034005217654096</v>
+        <v>1.033676703892082</v>
       </c>
       <c r="L8">
-        <v>1.018222473163621</v>
+        <v>1.018445932854087</v>
       </c>
       <c r="M8">
-        <v>1.037651931768405</v>
+        <v>1.037668756587694</v>
       </c>
       <c r="N8">
-        <v>1.010978578467824</v>
+        <v>1.013066866982243</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.038371365676807</v>
+        <v>1.038384681432554</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.035137882954973</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.034916676191548</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.020917412395975</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9897057664721918</v>
+        <v>0.990727751808936</v>
       </c>
       <c r="D9">
-        <v>1.015270213348016</v>
+        <v>1.015828149665791</v>
       </c>
       <c r="E9">
-        <v>0.9979353872535319</v>
+        <v>0.9989187085915916</v>
       </c>
       <c r="F9">
-        <v>1.019255683296494</v>
+        <v>1.019645579024037</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.046072451494294</v>
+        <v>1.046355182035895</v>
       </c>
       <c r="J9">
-        <v>1.015627352103484</v>
+        <v>1.016612240174317</v>
       </c>
       <c r="K9">
-        <v>1.028120306646</v>
+        <v>1.028669541767815</v>
       </c>
       <c r="L9">
-        <v>1.011062050409257</v>
+        <v>1.01202935338897</v>
       </c>
       <c r="M9">
-        <v>1.032043888834622</v>
+        <v>1.032427763300085</v>
       </c>
       <c r="N9">
-        <v>1.008451292094592</v>
+        <v>1.01132833742768</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.033932948698337</v>
+        <v>1.034236762335603</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.030973599368898</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.031372775501549</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.019789867068716</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.981789691316298</v>
+        <v>0.9834550519156464</v>
       </c>
       <c r="D10">
-        <v>1.009857772376588</v>
+        <v>1.011073990374588</v>
       </c>
       <c r="E10">
-        <v>0.991627371802084</v>
+        <v>0.9931870730933933</v>
       </c>
       <c r="F10">
-        <v>1.014238379434138</v>
+        <v>1.014912379092031</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.043933900578729</v>
+        <v>1.044546061419313</v>
       </c>
       <c r="J10">
-        <v>1.010744917480034</v>
+        <v>1.012340832776221</v>
       </c>
       <c r="K10">
-        <v>1.024051293873665</v>
+        <v>1.02524613826331</v>
       </c>
       <c r="L10">
-        <v>1.006149460229563</v>
+        <v>1.00768043630404</v>
       </c>
       <c r="M10">
-        <v>1.028355227839388</v>
+        <v>1.029017506632189</v>
       </c>
       <c r="N10">
-        <v>1.006737786335977</v>
+        <v>1.010280934459079</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.031065493104667</v>
+        <v>1.031589615897667</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.028113453238827</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.028970816467849</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.019023418450453</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9790917805683009</v>
+        <v>0.9809650090724051</v>
       </c>
       <c r="D11">
-        <v>1.008047834738044</v>
+        <v>1.009493621030689</v>
       </c>
       <c r="E11">
-        <v>0.9896428519618428</v>
+        <v>0.9913657533752491</v>
       </c>
       <c r="F11">
-        <v>1.013858419965818</v>
+        <v>1.014627232037944</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.043393992108709</v>
+        <v>1.044122778806382</v>
       </c>
       <c r="J11">
-        <v>1.009360997059622</v>
+        <v>1.011151680776466</v>
       </c>
       <c r="K11">
-        <v>1.022819559987216</v>
+        <v>1.024238695184271</v>
       </c>
       <c r="L11">
-        <v>1.004762768254562</v>
+        <v>1.006452356775822</v>
       </c>
       <c r="M11">
-        <v>1.028523635026588</v>
+        <v>1.029278473370055</v>
       </c>
       <c r="N11">
-        <v>1.006459687657079</v>
+        <v>1.010314414595501</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.031638448733265</v>
+        <v>1.032235517106346</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.027275723474096</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.028294873519668</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.018884507760753</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9783131235825648</v>
+        <v>0.9802210385947819</v>
       </c>
       <c r="D12">
-        <v>1.007521609076295</v>
+        <v>1.00902287959314</v>
       </c>
       <c r="E12">
-        <v>0.9891382892159839</v>
+        <v>0.9908720355584958</v>
       </c>
       <c r="F12">
-        <v>1.014318343602967</v>
+        <v>1.015105709837152</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.043307344587299</v>
+        <v>1.044064998543466</v>
       </c>
       <c r="J12">
-        <v>1.009064539642937</v>
+        <v>1.01088672634048</v>
       </c>
       <c r="K12">
-        <v>1.022506111856154</v>
+        <v>1.023979233281511</v>
       </c>
       <c r="L12">
-        <v>1.004476583525202</v>
+        <v>1.006176227573474</v>
       </c>
       <c r="M12">
-        <v>1.029176273548288</v>
+        <v>1.029949119729544</v>
       </c>
       <c r="N12">
-        <v>1.006513032254041</v>
+        <v>1.010436172224894</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.032483213451958</v>
+        <v>1.033094316232427</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.027054101116214</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.028111426325777</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.018881735561865</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9789875711797326</v>
+        <v>0.9807793831693797</v>
       </c>
       <c r="D13">
-        <v>1.007975035429648</v>
+        <v>1.009387337865873</v>
       </c>
       <c r="E13">
-        <v>0.9897627657593503</v>
+        <v>0.9913730188167846</v>
       </c>
       <c r="F13">
-        <v>1.015486173668641</v>
+        <v>1.016226733022629</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.019999999999999</v>
+      </c>
       <c r="I13">
-        <v>1.043583184073353</v>
+        <v>1.044296992968391</v>
       </c>
       <c r="J13">
-        <v>1.009612643495107</v>
+        <v>1.011324384674989</v>
       </c>
       <c r="K13">
-        <v>1.022907498581312</v>
+        <v>1.024293436806425</v>
       </c>
       <c r="L13">
-        <v>1.005044055590161</v>
+        <v>1.006622789259802</v>
       </c>
       <c r="M13">
-        <v>1.030279519114358</v>
+        <v>1.031006507208263</v>
       </c>
       <c r="N13">
-        <v>1.00684095122169</v>
+        <v>1.01060640264608</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.033633667226126</v>
+        <v>1.034208363473631</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.02733538147034</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.028330818147071</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.018991967999142</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9801075649157018</v>
+        <v>0.9817542224429208</v>
       </c>
       <c r="D14">
-        <v>1.008729570869464</v>
+        <v>1.01001759400435</v>
       </c>
       <c r="E14">
-        <v>0.9907017224784245</v>
+        <v>0.9921697700206762</v>
       </c>
       <c r="F14">
-        <v>1.016607581852278</v>
+        <v>1.017287884582265</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.043935003885327</v>
+        <v>1.044586903128262</v>
       </c>
       <c r="J14">
-        <v>1.010368838927262</v>
+        <v>1.011943022457478</v>
       </c>
       <c r="K14">
-        <v>1.02350547229154</v>
+        <v>1.02476975838723</v>
       </c>
       <c r="L14">
-        <v>1.005818349387218</v>
+        <v>1.007258044288957</v>
       </c>
       <c r="M14">
-        <v>1.031239522829186</v>
+        <v>1.031907529878974</v>
       </c>
       <c r="N14">
-        <v>1.007190562047734</v>
+        <v>1.010747968299198</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.034566580287418</v>
+        <v>1.035094579395611</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.027759616182656</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.02866916872658</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.019119908940776</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9807131855340059</v>
+        <v>0.9822903370247332</v>
       </c>
       <c r="D15">
-        <v>1.009141967139124</v>
+        <v>1.010366959899865</v>
       </c>
       <c r="E15">
-        <v>0.9911924471599386</v>
+        <v>0.9925956130761492</v>
       </c>
       <c r="F15">
-        <v>1.01707136457052</v>
+        <v>1.017722170288848</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.044110018361863</v>
+        <v>1.044730382361132</v>
       </c>
       <c r="J15">
-        <v>1.010754832019375</v>
+        <v>1.01226320447326</v>
       </c>
       <c r="K15">
-        <v>1.023822532999092</v>
+        <v>1.025025126883288</v>
       </c>
       <c r="L15">
-        <v>1.00620953130206</v>
+        <v>1.007585816712876</v>
       </c>
       <c r="M15">
-        <v>1.031608183802012</v>
+        <v>1.032247320705798</v>
       </c>
       <c r="N15">
-        <v>1.007344305915405</v>
+        <v>1.010802509292726</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.034895640921728</v>
+        <v>1.035400807478441</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.027989722488321</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.028856218913899</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.019181330877863</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9839422188285368</v>
+        <v>0.9851952642010816</v>
       </c>
       <c r="D16">
-        <v>1.011355221877925</v>
+        <v>1.012265773436615</v>
       </c>
       <c r="E16">
-        <v>0.9937394777310913</v>
+        <v>0.9948554631710413</v>
       </c>
       <c r="F16">
-        <v>1.01902227381584</v>
+        <v>1.019531285990975</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.044985410641704</v>
+        <v>1.045447937997156</v>
       </c>
       <c r="J16">
-        <v>1.012728870719042</v>
+        <v>1.013930124696284</v>
       </c>
       <c r="K16">
-        <v>1.025486352285245</v>
+        <v>1.026381003750015</v>
       </c>
       <c r="L16">
-        <v>1.008185682235759</v>
+        <v>1.009281276324579</v>
       </c>
       <c r="M16">
-        <v>1.033020669048718</v>
+        <v>1.033520960312696</v>
       </c>
       <c r="N16">
-        <v>1.008009815830583</v>
+        <v>1.011029639619607</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.035973209575175</v>
+        <v>1.036368645561021</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.029169313360744</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.029818367083019</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.019476840581953</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9858402305806151</v>
+        <v>0.9869309715323475</v>
       </c>
       <c r="D17">
-        <v>1.01266437204061</v>
+        <v>1.013405784626087</v>
       </c>
       <c r="E17">
-        <v>0.9952109240864373</v>
+        <v>0.996189467376646</v>
       </c>
       <c r="F17">
-        <v>1.019931336279392</v>
+        <v>1.020367258971873</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.045472766997516</v>
+        <v>1.045850154720559</v>
       </c>
       <c r="J17">
-        <v>1.013853637285126</v>
+        <v>1.014900805687943</v>
       </c>
       <c r="K17">
-        <v>1.026453933808816</v>
+        <v>1.027182774974845</v>
       </c>
       <c r="L17">
-        <v>1.009303447458441</v>
+        <v>1.010264640545195</v>
       </c>
       <c r="M17">
-        <v>1.033598694681078</v>
+        <v>1.034027358049594</v>
       </c>
       <c r="N17">
-        <v>1.008340392324908</v>
+        <v>1.011161559701204</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.03630059053671</v>
+        <v>1.036639444978396</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.029856045597326</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.030388103762685</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.019638808570492</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9867242858585585</v>
+        <v>0.9877698333785641</v>
       </c>
       <c r="D18">
-        <v>1.013274549787023</v>
+        <v>1.013952342999913</v>
       </c>
       <c r="E18">
-        <v>0.9958444455066063</v>
+        <v>0.9967959067806222</v>
       </c>
       <c r="F18">
-        <v>1.019907978561303</v>
+        <v>1.020320276071538</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.045642894667089</v>
+        <v>1.045987763643794</v>
       </c>
       <c r="J18">
-        <v>1.014298388690772</v>
+        <v>1.015302979150724</v>
       </c>
       <c r="K18">
-        <v>1.02686801478225</v>
+        <v>1.02753450975318</v>
       </c>
       <c r="L18">
-        <v>1.009735296848584</v>
+        <v>1.010670177199067</v>
       </c>
       <c r="M18">
-        <v>1.033391700166735</v>
+        <v>1.033797237190753</v>
       </c>
       <c r="N18">
-        <v>1.008384768847814</v>
+        <v>1.011164675546097</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.035898252971679</v>
+        <v>1.036218893555478</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.030137082081744</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.030623925230259</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.019683041196624</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9866563120645808</v>
+        <v>0.987759955452837</v>
       </c>
       <c r="D19">
-        <v>1.013227666758852</v>
+        <v>1.013938255125907</v>
       </c>
       <c r="E19">
-        <v>0.9956922958679932</v>
+        <v>0.9967132857786237</v>
       </c>
       <c r="F19">
-        <v>1.018970469039079</v>
+        <v>1.019403842544369</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.045508956560257</v>
+        <v>1.045869313085321</v>
       </c>
       <c r="J19">
-        <v>1.014095444368337</v>
+        <v>1.015156103865995</v>
       </c>
       <c r="K19">
-        <v>1.026758573568816</v>
+        <v>1.027457379459899</v>
       </c>
       <c r="L19">
-        <v>1.009520857323453</v>
+        <v>1.010524144890601</v>
       </c>
       <c r="M19">
-        <v>1.032406757243443</v>
+        <v>1.032833046073272</v>
       </c>
       <c r="N19">
-        <v>1.008170116845367</v>
+        <v>1.011029715363813</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.034792206498162</v>
+        <v>1.035129365863362</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.030066151034821</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.030576460973444</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.019616125627236</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9838978397230029</v>
+        <v>0.9853512165253869</v>
       </c>
       <c r="D20">
-        <v>1.011312657528687</v>
+        <v>1.012326558936183</v>
       </c>
       <c r="E20">
-        <v>0.9933158150643536</v>
+        <v>0.9946814679991477</v>
       </c>
       <c r="F20">
-        <v>1.015567568613831</v>
+        <v>1.016148893853919</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.044519844882516</v>
+        <v>1.045030517815517</v>
       </c>
       <c r="J20">
-        <v>1.012063901382471</v>
+        <v>1.013458741647861</v>
       </c>
       <c r="K20">
-        <v>1.025159462020515</v>
+        <v>1.026156069127552</v>
       </c>
       <c r="L20">
-        <v>1.007477224968016</v>
+        <v>1.008818486538688</v>
       </c>
       <c r="M20">
-        <v>1.029342095150352</v>
+        <v>1.029913606076507</v>
       </c>
       <c r="N20">
-        <v>1.007217239075962</v>
+        <v>1.010492331215758</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.031835857722015</v>
+        <v>1.032288152889927</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.028939462932816</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.029660728539256</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.019232195015975</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9777564509698402</v>
+        <v>0.9798963476440419</v>
       </c>
       <c r="D21">
-        <v>1.007110747780839</v>
+        <v>1.008764814211319</v>
       </c>
       <c r="E21">
-        <v>0.9884051068984583</v>
+        <v>0.9904031727650782</v>
       </c>
       <c r="F21">
-        <v>1.011436884561876</v>
+        <v>1.012318568362709</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.042795339970247</v>
+        <v>1.043627254457123</v>
       </c>
       <c r="J21">
-        <v>1.008214530141743</v>
+        <v>1.010259322619799</v>
       </c>
       <c r="K21">
-        <v>1.021958645615756</v>
+        <v>1.023582015597598</v>
       </c>
       <c r="L21">
-        <v>1.003609528844207</v>
+        <v>1.005568669857368</v>
       </c>
       <c r="M21">
-        <v>1.026204773536832</v>
+        <v>1.027070260474724</v>
       </c>
       <c r="N21">
-        <v>1.005826003855564</v>
+        <v>1.010040611525084</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.02931162256735</v>
+        <v>1.029996607963818</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.02667960336702</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.027844365580836</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.018654919740915</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9738297253666459</v>
+        <v>0.9764104677928908</v>
       </c>
       <c r="D22">
-        <v>1.004425886860076</v>
+        <v>1.006490206442359</v>
       </c>
       <c r="E22">
-        <v>0.985279144882984</v>
+        <v>0.9876833938776322</v>
       </c>
       <c r="F22">
-        <v>1.008897801502913</v>
+        <v>1.009972540471034</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.041688717348584</v>
+        <v>1.042726292103169</v>
       </c>
       <c r="J22">
-        <v>1.005763136354715</v>
+        <v>1.008222116374332</v>
       </c>
       <c r="K22">
-        <v>1.019910173007993</v>
+        <v>1.021934178270977</v>
       </c>
       <c r="L22">
-        <v>1.001147976269115</v>
+        <v>1.003502858472352</v>
       </c>
       <c r="M22">
-        <v>1.024295028250536</v>
+        <v>1.025348994690077</v>
       </c>
       <c r="N22">
-        <v>1.00494512091579</v>
+        <v>1.009750676615018</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.02780016161561</v>
+        <v>1.028634319925186</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.025217564735874</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.026664324284848</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.018285832425107</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9759029356471591</v>
+        <v>0.9782332157179396</v>
       </c>
       <c r="D23">
-        <v>1.005837756791079</v>
+        <v>1.00767231367273</v>
       </c>
       <c r="E23">
-        <v>0.9869246163453607</v>
+        <v>0.9890974328483703</v>
       </c>
       <c r="F23">
-        <v>1.010241440745786</v>
+        <v>1.011206450611498</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.042270659234893</v>
+        <v>1.043192912910592</v>
       </c>
       <c r="J23">
-        <v>1.007051556072739</v>
+        <v>1.009275292761009</v>
       </c>
       <c r="K23">
-        <v>1.020984294145074</v>
+        <v>1.02278397097295</v>
       </c>
       <c r="L23">
-        <v>1.002440692486527</v>
+        <v>1.004570110169205</v>
       </c>
       <c r="M23">
-        <v>1.025304529925977</v>
+        <v>1.026251380013727</v>
       </c>
       <c r="N23">
-        <v>1.005402321830186</v>
+        <v>1.009850520388996</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.028599128452696</v>
+        <v>1.0293485090524</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.025967280987671</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.027254486703375</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.018470979655762</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9838885546058759</v>
+        <v>0.9853541814101563</v>
       </c>
       <c r="D24">
-        <v>1.011294680236567</v>
+        <v>1.01231551117709</v>
       </c>
       <c r="E24">
-        <v>0.9932878304338167</v>
+        <v>0.9946678112742345</v>
       </c>
       <c r="F24">
-        <v>1.015436759787578</v>
+        <v>1.016022878169813</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.044491237432827</v>
+        <v>1.045005257029222</v>
       </c>
       <c r="J24">
-        <v>1.012021224671954</v>
+        <v>1.013427904284367</v>
       </c>
       <c r="K24">
-        <v>1.025126309983698</v>
+        <v>1.026129750155794</v>
       </c>
       <c r="L24">
-        <v>1.007433853620685</v>
+        <v>1.008789217691799</v>
       </c>
       <c r="M24">
-        <v>1.029198105320991</v>
+        <v>1.029774337944908</v>
       </c>
       <c r="N24">
-        <v>1.00717492369939</v>
+        <v>1.010463903703016</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.03168067746913</v>
+        <v>1.032136732477751</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.028888360070792</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.029611800929626</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.019214197817431</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9927609943070236</v>
+        <v>0.9935370109654336</v>
       </c>
       <c r="D25">
-        <v>1.01737488677203</v>
+        <v>1.01768138881367</v>
       </c>
       <c r="E25">
-        <v>1.000391941077862</v>
+        <v>1.00115261935275</v>
       </c>
       <c r="F25">
-        <v>1.021259838339656</v>
+        <v>1.02154139907505</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.046901325695046</v>
+        <v>1.047058094045273</v>
       </c>
       <c r="J25">
-        <v>1.017534460181851</v>
+        <v>1.018283855411398</v>
       </c>
       <c r="K25">
-        <v>1.029709337256109</v>
+        <v>1.030011287387431</v>
       </c>
       <c r="L25">
-        <v>1.01298417571135</v>
+        <v>1.013733068702584</v>
       </c>
       <c r="M25">
-        <v>1.033536849529034</v>
+        <v>1.033814268928319</v>
       </c>
       <c r="N25">
-        <v>1.009139472238312</v>
+        <v>1.011763577460325</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.035114536892629</v>
+        <v>1.035334097369319</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.032125955072942</v>
+        <v>1.032353068350839</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.020097240282877</v>
       </c>
     </row>
   </sheetData>
